--- a/docs/For-Portal-1Jan19.xlsx
+++ b/docs/For-Portal-1Jan19.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trust-site\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trust-site\git\ceg94trust\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4124C149-D7CA-43EB-9FE9-C6E8B9461874}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED550837-A161-4038-8916-C7CF2553A170}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="For Portal" sheetId="1" r:id="rId1"/>
     <sheet name="For Portal (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Version 1 (22 Jan)" sheetId="3" r:id="rId3"/>
+    <sheet name="dept-portal" sheetId="4" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'For Portal'!$B$3:$B$32</definedName>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="91">
   <si>
     <t>Branch</t>
   </si>
@@ -169,18 +171,6 @@
     <t>Mining</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
     <t>Agri Engg</t>
   </si>
   <si>
@@ -198,15 +188,171 @@
   <si>
     <t>Group Direct Sponsors</t>
   </si>
+  <si>
+    <t>15.Jan.2019</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>CEG'94 Department Strength</t>
+  </si>
+  <si>
+    <t>Donors (Till Date)</t>
+  </si>
+  <si>
+    <t>% Contributed so far</t>
+  </si>
+  <si>
+    <t>Amount Donated</t>
+  </si>
+  <si>
+    <t>Funds collected towards Corpus</t>
+  </si>
+  <si>
+    <t>Fund collected towards AY2018-19 &amp; AY2019-20 disbursement</t>
+  </si>
+  <si>
+    <t>Printing</t>
+  </si>
+  <si>
+    <t>Industrial</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Chemical (B-Tech)</t>
+  </si>
+  <si>
+    <t>Uncategorised</t>
+  </si>
+  <si>
+    <t>External</t>
+  </si>
+  <si>
+    <t>FD Interest accrued so far (15th Jan, 2019)</t>
+  </si>
+  <si>
+    <t>GRAND TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Sponsorship disbursed AY2018-19</t>
+  </si>
+  <si>
+    <t>By Trust</t>
+  </si>
+  <si>
+    <t>By Direct Sponsors</t>
+  </si>
+  <si>
+    <t>Balance Corpus + Interest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balance Reserve Fees for AY19-20 </t>
+  </si>
+  <si>
+    <t>Balance Total</t>
+  </si>
+  <si>
+    <t>Anonymous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Civil
+6/17
+₹ 60,000 
+2% </t>
+  </si>
+  <si>
+    <t>Mining
+3/28
+₹ 35,000 
+1.2%</t>
+  </si>
+  <si>
+    <t>Printing
+4/15
+₹ 55,000 
+1.9%</t>
+  </si>
+  <si>
+    <t>Industrial
+3/15
+₹ 79,307 
+2.7%</t>
+  </si>
+  <si>
+    <t>Production
+2/10
+₹ 20,000 
+0.7%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Others
+6
+₹ 93,875 
+3.2%
+</t>
+  </si>
+  <si>
+    <t>CSE
+46/67
+₹ 7,27,450 
+24.7%</t>
+  </si>
+  <si>
+    <t>ECE
+40/74
+₹ 7,71,916 
+26.2%</t>
+  </si>
+  <si>
+    <t>EEE
+21/61
+₹ 4,73,280 
+16.1%</t>
+  </si>
+  <si>
+    <t>Mech
+31/103
+₹ 6,25,003 
+21.3%</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>Total Donations</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>Corpus</t>
+  </si>
+  <si>
+    <t>Short Term Reserve</t>
+  </si>
+  <si>
+    <t>AY 2018-19 Disbursement</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="[$₹-4009]#,##0;\-[$₹-4009]#,##0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="_ [$₹-4009]\ * #,##0_ ;_ [$₹-4009]\ * \-#,##0_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -297,8 +443,31 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,8 +498,98 @@
         <bgColor rgb="FF99CCFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FFBCE4E5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFFCD4D1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor rgb="FFBCE4E5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF339966"/>
+        <bgColor rgb="FF008080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCD4D1"/>
+        <bgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBCE4E5"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFCD4D1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -592,15 +851,314 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF2E3436"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF2E3436"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF2E3436"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF2E3436"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF2E3436"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF2E3436"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF2E3436"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF2E3436"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF2E3436"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF2E3436"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF2E3436"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF2E3436"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF2E3436"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF2E3436"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF2E3436"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF2E3436"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF2E3436"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF2E3436"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF2E3436"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF2E3436"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF2E3436"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF2E3436"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF2E3436"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF2E3436"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF2E3436"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF2E3436"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF2E3436"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF2E3436"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF2E3436"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF2E3436"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF2E3436"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF2E3436"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF2E3436"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF2E3436"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF2E3436"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF2E3436"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF2E3436"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF2E3436"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF2E3436"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF2E3436"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF2E3436"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF2E3436"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF2E3436"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF2E3436"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF2E3436"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF2E3436"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF2E3436"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF2E3436"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF2E3436"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF2E3436"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF2E3436"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF2E3436"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF2E3436"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF2E3436"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF2E3436"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF2E3436"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF2E3436"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF2E3436"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF2E3436"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF2E3436"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF2E3436"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF2E3436"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -696,12 +1254,6 @@
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -728,9 +1280,231 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="11" borderId="24" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="8" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="6" fillId="17" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="18" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="17" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="18" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="17" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="18" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Currency" xfId="4" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{6757EA36-C6CD-4A66-AA6B-BB356DA27044}"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent 2" xfId="3" xr:uid="{6D139A37-53AD-4FDB-AC66-4E4CA1B25E36}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1779,6 +2553,2583 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="3600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="3600"/>
+              <a:t>CEG'94 Branch</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="3600" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="3600"/>
+              <a:t>Contributions 2/2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="3600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.0170954231084816E-2"/>
+          <c:y val="0.19461713286520646"/>
+          <c:w val="0.63770176501216691"/>
+          <c:h val="0.67482603611040548"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-6487-4EA6-A4E5-41688EB4CCE9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-6487-4EA6-A4E5-41688EB4CCE9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-6487-4EA6-A4E5-41688EB4CCE9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-6487-4EA6-A4E5-41688EB4CCE9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-6487-4EA6-A4E5-41688EB4CCE9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-6487-4EA6-A4E5-41688EB4CCE9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.2005874265716787E-2"/>
+                  <c:y val="6.0070390224023301E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-6487-4EA6-A4E5-41688EB4CCE9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.3963392401370963E-2"/>
+                  <c:y val="-1.4108324318885059E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-6487-4EA6-A4E5-41688EB4CCE9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.2728408948880807E-3"/>
+                  <c:y val="-4.6775130307408645E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-6487-4EA6-A4E5-41688EB4CCE9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.0094113235845523E-2"/>
+                  <c:y val="-2.6338026964870434E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-6487-4EA6-A4E5-41688EB4CCE9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.7048243969503818E-2"/>
+                  <c:y val="1.869119780222912E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-6487-4EA6-A4E5-41688EB4CCE9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.1877050973528742E-2"/>
+                  <c:y val="4.2598509052183174E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-6487-4EA6-A4E5-41688EB4CCE9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.8960110843724932E-2"/>
+                  <c:y val="4.472843450479233E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-6487-4EA6-A4E5-41688EB4CCE9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'dept-portal'!$D$29:$D$34</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Civil
+6/17
+₹ 60,000 
+2% </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mining
+3/28
+₹ 35,000 
+1.2%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Printing
+4/15
+₹ 55,000 
+1.9%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Industrial
+3/15
+₹ 79,307 
+2.7%</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Production
+2/10
+₹ 20,000 
+0.7%</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Others
+6
+₹ 93,875 
+3.2%
+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'dept-portal'!$E$29:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>_ [$₹-4009]\ * #,##0_ ;_ [$₹-4009]\ * \-#,##0_ ;_ [$₹-4009]\ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6487-4EA6-A4E5-41688EB4CCE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-D3B1-49D6-B7F4-95A223FE7E6C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-6487-4EA6-A4E5-41688EB4CCE9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-6487-4EA6-A4E5-41688EB4CCE9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-6487-4EA6-A4E5-41688EB4CCE9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-D3B1-49D6-B7F4-95A223FE7E6C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-D3B1-49D6-B7F4-95A223FE7E6C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.085339332583427E-2"/>
+                  <c:y val="-4.8222832080843339E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-6487-4EA6-A4E5-41688EB4CCE9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.2833770778652671E-2"/>
+                  <c:y val="-1.7804907936996503E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-6487-4EA6-A4E5-41688EB4CCE9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.1819397575303086E-2"/>
+                  <c:y val="5.1118235627712658E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-6487-4EA6-A4E5-41688EB4CCE9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.2523593688655119E-2"/>
+                  <c:y val="-3.9698193425350053E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-D3B1-49D6-B7F4-95A223FE7E6C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.7920221687449865E-2"/>
+                  <c:y val="-0.10790202342917998"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-6487-4EA6-A4E5-41688EB4CCE9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'dept-portal'!$D$29:$D$34</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Civil
+6/17
+₹ 60,000 
+2% </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mining
+3/28
+₹ 35,000 
+1.2%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Printing
+4/15
+₹ 55,000 
+1.9%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Industrial
+3/15
+₹ 79,307 
+2.7%</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Production
+2/10
+₹ 20,000 
+0.7%</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Others
+6
+₹ 93,875 
+3.2%
+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'dept-portal'!$F$29:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>_ [$₹-4009]\ * #,##0_ ;_ [$₹-4009]\ * \-#,##0_ ;_ [$₹-4009]\ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49307</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6487-4EA6-A4E5-41688EB4CCE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="75"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.71180722759434789"/>
+          <c:y val="0.22063991052296919"/>
+          <c:w val="0.27210090490324024"/>
+          <c:h val="0.77405528786672517"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="Arial Rounded MT Bold" panose="020F0704030504030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="4000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="4000"/>
+              <a:t>CEG'94 Contributions</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="4000" baseline="0"/>
+              <a:t> 1/2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" sz="4000"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16293967366119264"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="4000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10977160315144714"/>
+          <c:y val="0.23290873793308037"/>
+          <c:w val="0.45204908076998029"/>
+          <c:h val="0.73730015736786669"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-E46D-4EC2-9476-EADA8AEC40B5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-E46D-4EC2-9476-EADA8AEC40B5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-E46D-4EC2-9476-EADA8AEC40B5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-E46D-4EC2-9476-EADA8AEC40B5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.2394780691400245E-2"/>
+                  <c:y val="8.8365208846880317E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-E46D-4EC2-9476-EADA8AEC40B5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.4554105747611205E-2"/>
+                  <c:y val="-5.4000960961982473E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-E46D-4EC2-9476-EADA8AEC40B5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.2582654714728042E-2"/>
+                  <c:y val="2.4545891346355671E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-E46D-4EC2-9476-EADA8AEC40B5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.0939370116639127E-2"/>
+                  <c:y val="4.909178269271134E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-E46D-4EC2-9476-EADA8AEC40B5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial Rounded MT Bold" panose="020F0704030504030204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'dept-portal'!$D$38:$D$41</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>CSE
+46/67
+₹ 7,27,450 
+24.7%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ECE
+40/74
+₹ 7,71,916 
+26.2%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EEE
+21/61
+₹ 4,73,280 
+16.1%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mech
+31/103
+₹ 6,25,003 
+21.3%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'dept-portal'!$E$38:$E$41</c:f>
+              <c:numCache>
+                <c:formatCode>_ "₹"\ * #,##0_ ;_ "₹"\ * \-#,##0_ ;_ "₹"\ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>453000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>498000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>210000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>285000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E46D-4EC2-9476-EADA8AEC40B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-E46D-4EC2-9476-EADA8AEC40B5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-E46D-4EC2-9476-EADA8AEC40B5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-E46D-4EC2-9476-EADA8AEC40B5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-E46D-4EC2-9476-EADA8AEC40B5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.0939370116639071E-2"/>
+                  <c:y val="-1.718212394244897E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-E46D-4EC2-9476-EADA8AEC40B5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.9483959541877953E-2"/>
+                  <c:y val="2.7000480480991237E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-E46D-4EC2-9476-EADA8AEC40B5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.7840674943789065E-2"/>
+                  <c:y val="3.6818837019533507E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-E46D-4EC2-9476-EADA8AEC40B5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10113696809319619"/>
+                  <c:y val="6.643063298023559E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-E46D-4EC2-9476-EADA8AEC40B5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial Rounded MT Bold" panose="020F0704030504030204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'dept-portal'!$D$38:$D$41</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>CSE
+46/67
+₹ 7,27,450 
+24.7%</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ECE
+40/74
+₹ 7,71,916 
+26.2%</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EEE
+21/61
+₹ 4,73,280 
+16.1%</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mech
+31/103
+₹ 6,25,003 
+21.3%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'dept-portal'!$F$38:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>_ "₹"\ * #,##0_ ;_ "₹"\ * \-#,##0_ ;_ "₹"\ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>274450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>273916</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>263280</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>340003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E46D-4EC2-9476-EADA8AEC40B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="75"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.58429584204246054"/>
+          <c:y val="0.45476324403310203"/>
+          <c:w val="0.41570415795753951"/>
+          <c:h val="0.53486901779431817"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial Rounded MT Bold" panose="020F0704030504030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Algerian" panose="04020705040A02060702" pitchFamily="82" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="2400" b="1">
+                <a:latin typeface="Algerian" panose="04020705040A02060702" pitchFamily="82" charset="0"/>
+              </a:rPr>
+              <a:t>Total Donations</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="1">
+                <a:latin typeface="Algerian" panose="04020705040A02060702" pitchFamily="82" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="2400" b="1" baseline="0">
+                <a:latin typeface="Algerian" panose="04020705040A02060702" pitchFamily="82" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="2400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="Algerian" panose="04020705040A02060702" pitchFamily="82" charset="0"/>
+              </a:rPr>
+              <a:t> ₹ 29,40,831 </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="1">
+                <a:latin typeface="Algerian" panose="04020705040A02060702" pitchFamily="82" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" sz="2400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="Algerian" panose="04020705040A02060702" pitchFamily="82" charset="0"/>
+              </a:rPr>
+              <a:t>156/390 </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" sz="2400" b="1">
+              <a:latin typeface="Algerian" panose="04020705040A02060702" pitchFamily="82" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.51935529075755116"/>
+          <c:y val="2.8772831921803146E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Algerian" panose="04020705040A02060702" pitchFamily="82" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-83DC-491D-8578-4FEF682FDC7D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-83DC-491D-8578-4FEF682FDC7D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-83DC-491D-8578-4FEF682FDC7D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-83DC-491D-8578-4FEF682FDC7D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.487712991982656E-2"/>
+                  <c:y val="8.4820269485890665E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1D5A273C-E6F1-4E32-B771-9569B52F26E0}" type="VALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> </a:t>
+                    </a:r>
+                    <a:fld id="{4D382AE8-288F-433F-B05C-109DFE870252}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[PERCENTAGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-83DC-491D-8578-4FEF682FDC7D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.6795405356709901E-2"/>
+                  <c:y val="5.1453526439059673E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B6665D21-5686-45C8-B3C0-56912E84858F}" type="VALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> </a:t>
+                    </a:r>
+                    <a:fld id="{5A1A7562-FCB1-4F37-A8E7-A19F1635E100}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[PERCENTAGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-83DC-491D-8578-4FEF682FDC7D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5AA1250B-B71B-48AA-9636-C45DA7530DBF}" type="VALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> </a:t>
+                    </a:r>
+                    <a:fld id="{35E1ECCA-8E64-42BC-B4C2-F53B453A23FC}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[PERCENTAGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-83DC-491D-8578-4FEF682FDC7D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.1448267629370781E-2"/>
+                  <c:y val="1.4646277679124473E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{86280E65-C5D2-48D5-996E-F960A520FD2B}" type="VALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> </a:t>
+                    </a:r>
+                    <a:fld id="{5FBD35FD-2034-4517-9482-A1A8FE7D5C7A}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[PERCENTAGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-83DC-491D-8578-4FEF682FDC7D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial Rounded MT Bold" panose="020F0704030504030204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'dept-portal'!$Q$22:$Q$25</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>AY 2018-19 Disbursement</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Corpus</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Interest</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Short Term Reserve</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'dept-portal'!$R$22:$R$25</c:f>
+              <c:numCache>
+                <c:formatCode>_ "₹"\ * #,##0_ ;_ "₹"\ * \-#,##0_ ;_ "₹"\ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>717572</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1717894</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66894</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>572259</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-83DC-491D-8578-4FEF682FDC7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.67079686305563646"/>
+          <c:y val="0.47782974005218987"/>
+          <c:w val="0.27270432809051082"/>
+          <c:h val="0.51647369234275642"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial Rounded MT Bold" panose="020F0704030504030204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1856,6 +5207,117 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -2362,6 +5824,1512 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="255">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2998,6 +7966,801 @@
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-IN" sz="2000"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>372717</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>144946</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>401043</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46B71964-DF42-454A-8DF4-3AA0AAFFCD01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>517993</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>8281</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>210875</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>105768</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E05F9F57-45D0-4258-AB4B-F60C9F085998}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>182342</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>790428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>232557</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>159581</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C86BF57-88AE-42D2-90EC-CD1F203E8B11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.44284</cdr:x>
+      <cdr:y>0.43952</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.55716</cdr:x>
+      <cdr:y>0.56048</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{941E0F1C-487B-4DBD-AFF3-84472E38FC0A}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3542347" y="3322320"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.13425</cdr:x>
+      <cdr:y>0.14497</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.42813</cdr:x>
+      <cdr:y>0.36801</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDDD6B5D-6FF6-4FB2-9D3F-3611D393E06A}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2146589" y="1486983"/>
+          <a:ext cx="4698839" cy="2287649"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-IN" sz="2800" b="0"/>
+            <a:t>Donations</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="2800" b="0" baseline="0"/>
+            <a:t> for short term </a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-IN" sz="2800" b="0" baseline="0"/>
+            <a:t>reserve</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="2800" b="0"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.49317</cdr:x>
+      <cdr:y>0.50969</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.73078</cdr:x>
+      <cdr:y>0.65739</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35691E11-9B56-4E94-B264-685C6FAEDDDE}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6058443" y="5374621"/>
+          <a:ext cx="2918990" cy="1557405"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-IN" sz="2800"/>
+            <a:t>Donations</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="2800" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-IN" sz="2800" baseline="0"/>
+            <a:t>for corpus</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="2800"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.76</cdr:x>
+      <cdr:y>0.06453</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99553</cdr:x>
+      <cdr:y>0.23775</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D2F5211-E1A1-48DC-98CE-332B6B936FA0}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="9336406" y="536725"/>
+          <a:ext cx="2893359" cy="1440582"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-IN" sz="2000" b="1">
+              <a:latin typeface="Bahnschrift SemiBold SemiConden" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Branch </a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-IN" sz="2000" b="1">
+              <a:latin typeface="Bahnschrift SemiBold SemiConden" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t># contributed </a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-IN" sz="2000" b="1">
+              <a:latin typeface="Bahnschrift SemiBold SemiConden" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>total donations </a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-IN" sz="2000" b="1">
+              <a:latin typeface="Bahnschrift SemiBold SemiConden" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>percentage/total</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="2000" b="1" baseline="0">
+              <a:latin typeface="Bahnschrift SemiBold SemiConden" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> donations</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="2000" b="1">
+            <a:latin typeface="Bahnschrift SemiBold SemiConden" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.6352</cdr:x>
+      <cdr:y>0.20747</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.95693</cdr:x>
+      <cdr:y>0.48173</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B01AAB4-696E-47B4-BC3D-52C8AE30F561}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5746353" y="1073438"/>
+          <a:ext cx="2910508" cy="1419015"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-IN" sz="2000" b="1">
+              <a:latin typeface="Bahnschrift SemiBold SemiConden" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Branch </a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-IN" sz="2000" b="1">
+              <a:latin typeface="Bahnschrift SemiBold SemiConden" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t># </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1800" b="1">
+              <a:latin typeface="Bahnschrift SemiBold SemiConden" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>contributed</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="2000" b="1">
+              <a:latin typeface="Bahnschrift SemiBold SemiConden" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-IN" sz="2000" b="1">
+              <a:latin typeface="Bahnschrift SemiBold SemiConden" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>total donations </a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-IN" sz="2000" b="1">
+              <a:latin typeface="Bahnschrift SemiBold SemiConden" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>percentage/total</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="2000" b="1" baseline="0">
+              <a:latin typeface="Bahnschrift SemiBold SemiConden" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> donations</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="2000" b="1">
+            <a:latin typeface="Bahnschrift SemiBold SemiConden" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.07419</cdr:x>
+      <cdr:y>0.15999</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.28681</cdr:x>
+      <cdr:y>0.34464</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB2943D9-0336-43CB-A7D7-8E9ADAE884B7}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="671571" y="874608"/>
+          <a:ext cx="1924696" cy="1009356"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-IN" sz="2000" b="0"/>
+            <a:t>Donations</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="2000" b="0" baseline="0"/>
+            <a:t> for </a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-IN" sz="2000" b="0" baseline="0"/>
+            <a:t>short term </a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-IN" sz="2000" b="0" baseline="0"/>
+            <a:t>reserve</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="2000" b="0"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.35513</cdr:x>
+      <cdr:y>0.61838</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.58601</cdr:x>
+      <cdr:y>0.82342</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27CF571E-E261-41CB-8CBE-2A8C3D35FCF8}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3214756" y="3380410"/>
+          <a:ext cx="2089925" cy="1120858"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-IN" sz="2000"/>
+            <a:t>Donations</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="2000" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-IN" sz="2000" baseline="0"/>
+            <a:t>for corpus</a:t>
+          </a:r>
           <a:endParaRPr lang="en-IN" sz="2000"/>
         </a:p>
       </cdr:txBody>
@@ -3503,8 +9266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M12" activeCellId="1" sqref="O12 M12"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3525,960 +9288,960 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="126"/>
+      <c r="F3" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="126"/>
     </row>
     <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="25.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>0</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>0</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <f>[1]Consolidated!H5</f>
         <v>7665</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <f>[1]Consolidated!I5</f>
         <v>24250</v>
       </c>
-      <c r="J5" s="32"/>
-      <c r="K5" s="43">
+      <c r="J5" s="31"/>
+      <c r="K5" s="127">
         <v>43282</v>
       </c>
-      <c r="L5" s="44"/>
-      <c r="M5" s="43">
+      <c r="L5" s="128"/>
+      <c r="M5" s="127">
         <v>43446</v>
       </c>
-      <c r="N5" s="44"/>
-      <c r="O5" s="32"/>
+      <c r="N5" s="128"/>
+      <c r="O5" s="31"/>
     </row>
     <row r="6" spans="1:15" ht="25.2" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>0</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>0</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <f>[1]Consolidated!H6</f>
         <v>14115</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <f>[1]Consolidated!I6</f>
         <v>24250</v>
       </c>
-      <c r="J6" s="45" t="s">
+      <c r="J6" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="46" t="s">
+      <c r="K6" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="46" t="s">
+      <c r="L6" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="46" t="s">
+      <c r="M6" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="47" t="s">
+      <c r="N6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="32"/>
+      <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>0</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>0</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <f>[1]Consolidated!H7</f>
         <v>14115</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <f>[1]Consolidated!I7</f>
         <v>23250</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="34">
-        <f>SUMIF($C5:$C26,$J7,D5:D26)</f>
+      <c r="K7" s="33">
+        <f t="shared" ref="K7:N10" si="0">SUMIF($C5:$C26,$J7,D5:D26)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="34">
-        <f>SUMIF($C5:$C26,$J7,E5:E26)</f>
+      <c r="L7" s="33">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M7" s="34">
-        <f>SUMIF($C5:$C26,$J7,F5:F26)</f>
+      <c r="M7" s="33">
+        <f t="shared" si="0"/>
         <v>84850</v>
       </c>
-      <c r="N7" s="34">
-        <f>SUMIF($C5:$C26,$J7,G5:G26)</f>
+      <c r="N7" s="33">
+        <f t="shared" si="0"/>
         <v>235500</v>
       </c>
-      <c r="O7" s="35">
+      <c r="O7" s="34">
         <f>SUM(K7:N7)</f>
         <v>320350</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>0</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>0</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <f>[1]Consolidated!H8</f>
         <v>3665</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <f>[1]Consolidated!I8</f>
         <v>23250</v>
       </c>
-      <c r="J8" s="36" t="s">
+      <c r="J8" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="37">
-        <f>SUMIF($C6:$C27,$J8,D6:D27)</f>
+      <c r="K8" s="36">
+        <f t="shared" si="0"/>
         <v>14165</v>
       </c>
-      <c r="L8" s="37">
-        <f>SUMIF($C6:$C27,$J8,E6:E27)</f>
+      <c r="L8" s="36">
+        <f t="shared" si="0"/>
         <v>30739</v>
       </c>
-      <c r="M8" s="37">
-        <f>SUMIF($C6:$C27,$J8,F6:F27)</f>
+      <c r="M8" s="36">
+        <f t="shared" si="0"/>
         <v>43475</v>
       </c>
-      <c r="N8" s="37">
-        <f>SUMIF($C6:$C27,$J8,G6:G27)</f>
+      <c r="N8" s="36">
+        <f t="shared" si="0"/>
         <v>118816</v>
       </c>
-      <c r="O8" s="35">
+      <c r="O8" s="34">
         <f>SUM(K8:N8)</f>
         <v>207195</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>0</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>0</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <f>[1]Consolidated!H9</f>
         <v>14115</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <f>[1]Consolidated!I9</f>
         <v>22250</v>
       </c>
-      <c r="J9" s="36" t="s">
+      <c r="J9" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="37">
-        <f>SUMIF($C7:$C28,$J9,D7:D28)</f>
+      <c r="K9" s="36">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L9" s="37">
-        <f>SUMIF($C7:$C28,$J9,E7:E28)</f>
+      <c r="L9" s="36">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M9" s="37">
-        <f>SUMIF($C7:$C28,$J9,F7:F28)</f>
+      <c r="M9" s="36">
+        <f t="shared" si="0"/>
         <v>10380</v>
       </c>
-      <c r="N9" s="37">
-        <f>SUMIF($C7:$C28,$J9,G7:G28)</f>
+      <c r="N9" s="36">
+        <f t="shared" si="0"/>
         <v>46428</v>
       </c>
-      <c r="O9" s="35">
+      <c r="O9" s="34">
         <f>SUM(K9:N9)</f>
         <v>56808</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>0</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>0</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <f>[1]Consolidated!H10</f>
         <v>3665</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <f>[1]Consolidated!I10</f>
         <v>22250</v>
       </c>
-      <c r="J10" s="38" t="s">
+      <c r="J10" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="39">
-        <f>SUMIF($C8:$C29,$J10,D8:D29)</f>
+      <c r="K10" s="38">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L10" s="39">
-        <f>SUMIF($C8:$C29,$J10,E8:E29)</f>
+      <c r="L10" s="38">
+        <f t="shared" si="0"/>
         <v>55922</v>
       </c>
-      <c r="M10" s="39">
-        <f>SUMIF($C8:$C29,$J10,F8:F29)</f>
+      <c r="M10" s="38">
+        <f t="shared" si="0"/>
         <v>7715</v>
       </c>
-      <c r="N10" s="39">
-        <f>SUMIF($C8:$C29,$J10,G8:G29)</f>
+      <c r="N10" s="38">
+        <f t="shared" si="0"/>
         <v>83747</v>
       </c>
-      <c r="O10" s="35">
+      <c r="O10" s="34">
         <f>SUM(K10:N10)</f>
         <v>147384</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>7</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>0</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>0</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <f>[1]Consolidated!H11</f>
         <v>6615</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <f>[1]Consolidated!I11</f>
         <v>24250</v>
       </c>
-      <c r="J11" s="40" t="s">
+      <c r="J11" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="K11" s="41">
+      <c r="K11" s="40">
         <f>SUM(K7:K10)</f>
         <v>14165</v>
       </c>
-      <c r="L11" s="41">
+      <c r="L11" s="40">
         <f>SUM(L7:L10)</f>
         <v>86661</v>
       </c>
-      <c r="M11" s="41">
+      <c r="M11" s="40">
         <f>SUM(M7:M10)</f>
         <v>146420</v>
       </c>
-      <c r="N11" s="41">
+      <c r="N11" s="40">
         <f>SUM(N7:N10)</f>
         <v>484491</v>
       </c>
-      <c r="O11" s="42">
+      <c r="O11" s="41">
         <f>SUM(K11:N11)</f>
         <v>731737</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>8</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>0</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>0</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <f>[1]Consolidated!H12</f>
         <v>7665</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <f>[1]Consolidated!I12</f>
         <v>24250</v>
       </c>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="58">
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="55">
         <f>SUM(K11,M11)</f>
         <v>160585</v>
       </c>
-      <c r="N12" s="32"/>
-      <c r="O12" s="58">
+      <c r="N12" s="31"/>
+      <c r="O12" s="55">
         <f>SUM(L11,N11)</f>
         <v>571152</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>9</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>0</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>0</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <f>[1]Consolidated!H13</f>
         <v>6615</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="10">
         <f>[1]Consolidated!I13</f>
         <v>24250</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>10</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>0</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>0</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <f>[1]Consolidated!H14</f>
         <v>6615</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="10">
         <f>[1]Consolidated!I14</f>
         <v>23250</v>
       </c>
-      <c r="K14" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="L14" s="24">
+      <c r="K14" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" s="23">
         <f>COUNTIF($B$5:$B$26,K14)</f>
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>11</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <v>0</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>0</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <f>[1]Consolidated!H15</f>
         <v>7715</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="10">
         <f>[1]Consolidated!I15</f>
         <v>23719</v>
       </c>
-      <c r="K15" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="L15" s="26">
-        <f t="shared" ref="L15:L25" si="0">COUNTIF($B$5:$B$26,K15)</f>
+      <c r="K15" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" s="25">
+        <f t="shared" ref="L15:L24" si="1">COUNTIF($B$5:$B$26,K15)</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>12</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <v>0</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>0</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <f>[1]Consolidated!H16</f>
         <v>3715</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="10">
         <f>[1]Consolidated!I16</f>
         <v>23719</v>
       </c>
-      <c r="K16" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="L16" s="26">
-        <f t="shared" si="0"/>
+      <c r="K16" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="L16" s="25">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>13</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="10">
         <v>0</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>0</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <f>[1]Consolidated!H17</f>
         <v>3715</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="10">
         <f>[1]Consolidated!I17</f>
         <v>25386</v>
       </c>
-      <c r="K17" s="25" t="s">
+      <c r="K17" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="L17" s="26">
-        <f t="shared" si="0"/>
+      <c r="L17" s="25">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>14</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="10">
         <v>14165</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <f>[1]Consolidated!G18</f>
         <v>22432</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <f>[1]Consolidated!H18</f>
         <v>14165</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="10">
         <f>[1]Consolidated!I18</f>
         <v>22996</v>
       </c>
-      <c r="K18" s="25" t="s">
+      <c r="K18" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="L18" s="26">
-        <f t="shared" si="0"/>
+      <c r="L18" s="25">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <v>15</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="10">
         <v>0</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <f>8307</f>
         <v>8307</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <f>[1]Consolidated!H19</f>
         <v>14165</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="10">
         <f>[1]Consolidated!I19</f>
         <v>22996</v>
       </c>
-      <c r="K19" s="25" t="s">
+      <c r="K19" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="L19" s="26">
-        <f t="shared" si="0"/>
+      <c r="L19" s="25">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <v>16</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="13" t="s">
+      <c r="B20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="10">
         <v>0</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <v>0</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <f>[1]Consolidated!H20</f>
         <v>6665</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="10">
         <f>[1]Consolidated!I20</f>
         <v>23716</v>
       </c>
-      <c r="K20" s="25" t="s">
+      <c r="K20" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="L20" s="26">
-        <f t="shared" si="0"/>
+      <c r="L20" s="25">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <v>17</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="10">
         <v>0</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <v>0</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="10">
         <f>[1]Consolidated!H21</f>
         <v>3715</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="10">
         <f>[1]Consolidated!I21</f>
         <v>22712</v>
       </c>
-      <c r="K21" s="25" t="s">
+      <c r="K21" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="L21" s="26">
-        <f t="shared" si="0"/>
+      <c r="L21" s="25">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <v>18</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="10">
         <v>0</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <v>0</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <v>0</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="10">
         <f>[1]Consolidated!I22</f>
         <v>26762</v>
       </c>
-      <c r="K22" s="25" t="s">
+      <c r="K22" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="L22" s="26">
-        <f t="shared" si="0"/>
+      <c r="L22" s="25">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <v>19</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="10">
         <v>0</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="10">
         <v>0</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="10">
         <v>0</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="10">
         <f>[1]Consolidated!I23</f>
         <v>23652</v>
       </c>
-      <c r="K23" s="25" t="s">
+      <c r="K23" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="L23" s="26">
-        <f t="shared" si="0"/>
+      <c r="L23" s="25">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
+      <c r="A24" s="7">
         <v>20</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="10">
         <v>0</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="10">
         <v>25094</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="10">
         <v>0</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="10">
         <f>[1]Consolidated!I24</f>
         <v>8840</v>
       </c>
-      <c r="K24" s="25" t="s">
+      <c r="K24" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="L24" s="26">
-        <f t="shared" si="0"/>
+      <c r="L24" s="25">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
+      <c r="A25" s="7">
         <v>21</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="10">
         <v>0</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="10">
         <v>14709</v>
       </c>
-      <c r="F25" s="11" t="str">
+      <c r="F25" s="10" t="str">
         <f>[1]Consolidated!H25</f>
         <v>Dropout</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="10">
         <v>0</v>
       </c>
-      <c r="K25" s="25" t="s">
+      <c r="K25" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="L25" s="26">
+      <c r="L25" s="25">
         <f>COUNTIF($B$5:$B$26,K25)</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
+      <c r="A26" s="7">
         <v>22</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="10">
         <v>0</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="10">
         <v>16119</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="10">
         <f>[1]Consolidated!H26</f>
         <v>7715</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="10">
         <f>[1]Consolidated!I26</f>
         <v>24493</v>
       </c>
-      <c r="K26" s="25"/>
-      <c r="L26" s="26"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="25"/>
     </row>
     <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
-      <c r="B27" s="14" t="s">
+      <c r="A27" s="1"/>
+      <c r="B27" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="7">
+      <c r="C27" s="13"/>
+      <c r="D27" s="6">
         <f>SUM(D5:D26)</f>
         <v>14165</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="6">
         <f>SUM(E5:E26)</f>
         <v>86661</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="6">
         <f>SUM(F5:F26)</f>
         <v>146420</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="6">
         <f>SUM(G5:G26)</f>
         <v>484491</v>
       </c>
-      <c r="K27" s="28"/>
-      <c r="L27" s="29">
+      <c r="K27" s="27"/>
+      <c r="L27" s="28">
         <f>SUM(L14:L25)</f>
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15" t="s">
+    <row r="28" spans="1:12" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="15">
         <f>D27+E27</f>
         <v>100826</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G28" s="15">
         <f>F27+G27</f>
         <v>630911</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
-      <c r="B29" s="19" t="s">
+    <row r="29" spans="1:12" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="14"/>
+      <c r="B29" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="20">
+      <c r="C29" s="18"/>
+      <c r="D29" s="19">
         <f>[1]Consolidated!K34</f>
         <v>92938</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B30" s="19" t="s">
+    <row r="30" spans="1:12" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B30" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="20">
+      <c r="C30" s="18"/>
+      <c r="D30" s="19">
         <f>[1]Consolidated!K35</f>
         <v>323275</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B31" s="19" t="s">
+    <row r="31" spans="1:12" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B31" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="20">
+      <c r="C31" s="18"/>
+      <c r="D31" s="19">
         <f>[1]Consolidated!K36</f>
         <v>315524</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B32" s="21" t="s">
+    <row r="32" spans="1:12" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B32" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="22">
+      <c r="C32" s="20"/>
+      <c r="D32" s="21">
         <f>SUM(D27:G27)</f>
         <v>731737</v>
       </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="15"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="14"/>
     </row>
     <row r="36" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="2:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B37" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="49">
+      <c r="B37" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="46">
         <v>11</v>
       </c>
-      <c r="D37" s="54">
+      <c r="D37" s="51">
         <v>315524</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B38" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="51">
+      <c r="B38" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="48">
         <v>8</v>
       </c>
-      <c r="D38" s="55">
+      <c r="D38" s="52">
         <f>D30</f>
         <v>323275</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="53">
+      <c r="B39" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="50">
         <v>3</v>
       </c>
-      <c r="D39" s="56">
+      <c r="D39" s="53">
         <f>D29</f>
         <v>92938</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="30"/>
-      <c r="C40" s="57">
+      <c r="B40" s="29"/>
+      <c r="C40" s="54">
         <f>SUM(C37:C39)</f>
         <v>22</v>
       </c>
-      <c r="D40" s="31">
+      <c r="D40" s="30">
         <f>SUM(D37:D39)</f>
         <v>731737</v>
       </c>
@@ -4520,85 +10283,85 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="126"/>
+      <c r="F3" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="126"/>
     </row>
     <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>0</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>0</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <f>[1]Consolidated!H5</f>
         <v>7665</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <f>[1]Consolidated!I5</f>
         <v>24250</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>0</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>0</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <f>[1]Consolidated!H6</f>
         <v>14115</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <f>[1]Consolidated!I6</f>
         <v>24250</v>
       </c>
@@ -4610,26 +10373,26 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>0</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>0</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <f>[1]Consolidated!H7</f>
         <v>14115</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <f>[1]Consolidated!I7</f>
         <v>23250</v>
       </c>
@@ -4642,26 +10405,26 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>0</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>0</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <f>[1]Consolidated!H8</f>
         <v>3665</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <f>[1]Consolidated!I8</f>
         <v>23250</v>
       </c>
@@ -4670,26 +10433,26 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>0</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>0</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <f>[1]Consolidated!H9</f>
         <v>14115</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <f>[1]Consolidated!I9</f>
         <v>22250</v>
       </c>
@@ -4698,26 +10461,26 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>0</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>0</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <f>[1]Consolidated!H10</f>
         <v>3665</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <f>[1]Consolidated!I10</f>
         <v>22250</v>
       </c>
@@ -4726,488 +10489,488 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>7</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>0</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>0</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <f>[1]Consolidated!H11</f>
         <v>6615</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <f>[1]Consolidated!I11</f>
         <v>24250</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>8</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>0</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>0</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <f>[1]Consolidated!H12</f>
         <v>7665</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <f>[1]Consolidated!I12</f>
         <v>24250</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>9</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>0</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>0</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <f>[1]Consolidated!H13</f>
         <v>6615</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="10">
         <f>[1]Consolidated!I13</f>
         <v>24250</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>10</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>0</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>0</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <f>[1]Consolidated!H14</f>
         <v>6615</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="10">
         <f>[1]Consolidated!I14</f>
         <v>23250</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>11</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <v>0</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>0</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <f>[1]Consolidated!H15</f>
         <v>7715</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="10">
         <f>[1]Consolidated!I15</f>
         <v>23719</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>12</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <v>0</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>0</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <f>[1]Consolidated!H16</f>
         <v>3715</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="10">
         <f>[1]Consolidated!I16</f>
         <v>23719</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>13</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="10">
         <v>0</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>0</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <f>[1]Consolidated!H17</f>
         <v>3715</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="10">
         <f>[1]Consolidated!I17</f>
         <v>25386</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>14</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="10">
         <v>14165</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <f>[1]Consolidated!G18</f>
         <v>22432</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <f>[1]Consolidated!H18</f>
         <v>14165</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="10">
         <f>[1]Consolidated!I18</f>
         <v>22996</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <v>15</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="10">
         <v>0</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <f>8307</f>
         <v>8307</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <f>[1]Consolidated!H19</f>
         <v>14165</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="10">
         <f>[1]Consolidated!I19</f>
         <v>22996</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <v>16</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="10">
         <v>0</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <v>0</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <f>[1]Consolidated!H20</f>
         <v>6665</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="10">
         <f>[1]Consolidated!I20</f>
         <v>23716</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <v>17</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="10">
         <v>0</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <v>0</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="10">
         <f>[1]Consolidated!H21</f>
         <v>3715</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="10">
         <f>[1]Consolidated!I21</f>
         <v>22712</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <v>18</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="10">
         <v>0</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <v>0</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <v>0</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="10">
         <f>[1]Consolidated!I22</f>
         <v>26762</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <v>19</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="10">
         <v>0</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="10">
         <v>0</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="10">
         <v>0</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="10">
         <f>[1]Consolidated!I23</f>
         <v>23652</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
+      <c r="A24" s="7">
         <v>20</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="10">
         <v>0</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="10">
         <v>25094</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="10">
         <v>0</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="10">
         <f>[1]Consolidated!I24</f>
         <v>8840</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
+      <c r="A25" s="7">
         <v>21</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="10">
         <v>0</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="10">
         <v>14709</v>
       </c>
-      <c r="F25" s="11" t="str">
+      <c r="F25" s="10" t="str">
         <f>[1]Consolidated!H25</f>
         <v>Dropout</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
+      <c r="A26" s="7">
         <v>22</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="10">
         <v>0</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="10">
         <v>16119</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="10">
         <f>[1]Consolidated!H26</f>
         <v>7715</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="10">
         <f>[1]Consolidated!I26</f>
         <v>24493</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="14" t="s">
+      <c r="A27" s="1"/>
+      <c r="B27" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="7">
+      <c r="C27" s="13"/>
+      <c r="D27" s="6">
         <f>SUM(D5:D26)</f>
         <v>14165</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="6">
         <f>SUM(E5:E26)</f>
         <v>86661</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="6">
         <f>SUM(F5:F26)</f>
         <v>146420</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="6">
         <f>SUM(G5:G26)</f>
         <v>484491</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15" t="s">
+    <row r="28" spans="1:7" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="15">
         <f>D27+E27</f>
         <v>100826</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G28" s="15">
         <f>F27+G27</f>
         <v>630911</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
-      <c r="B29" s="19" t="s">
+    <row r="29" spans="1:7" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="14"/>
+      <c r="B29" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="20">
+      <c r="C29" s="18"/>
+      <c r="D29" s="19">
         <f>[1]Consolidated!K34</f>
         <v>92938</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B30" s="19" t="s">
+    <row r="30" spans="1:7" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B30" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="20">
+      <c r="C30" s="18"/>
+      <c r="D30" s="19">
         <f>[1]Consolidated!K35</f>
         <v>323275</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B31" s="19" t="s">
+    <row r="31" spans="1:7" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B31" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="20">
+      <c r="C31" s="18"/>
+      <c r="D31" s="19">
         <f>[1]Consolidated!K36</f>
         <v>315524</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B32" s="21" t="s">
+    <row r="32" spans="1:7" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B32" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="22">
+      <c r="C32" s="20"/>
+      <c r="D32" s="21">
         <f>SUM(D27:G27)</f>
         <v>731737</v>
       </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="15"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5221,4 +10984,1680 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41C5EEF0-9265-4E43-9EF6-15C45D7F8047}">
+  <dimension ref="A1:AMK24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.109375" style="61" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="61" customWidth="1"/>
+    <col min="3" max="3" width="9" style="94" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" style="61" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="61" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="61" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" style="61" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="61" customWidth="1"/>
+    <col min="9" max="1025" width="9" style="94" customWidth="1"/>
+    <col min="1026" max="16384" width="8.88671875" style="102"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="60"/>
+    </row>
+    <row r="2" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="70">
+        <v>17</v>
+      </c>
+      <c r="C3" s="71">
+        <v>6</v>
+      </c>
+      <c r="D3" s="72">
+        <f>C3/B3</f>
+        <v>0.35294117647058826</v>
+      </c>
+      <c r="E3" s="73">
+        <v>60000</v>
+      </c>
+      <c r="F3" s="74">
+        <v>60000</v>
+      </c>
+      <c r="G3" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="70">
+        <v>67</v>
+      </c>
+      <c r="C4" s="71">
+        <v>46</v>
+      </c>
+      <c r="D4" s="72">
+        <f t="shared" ref="D4:D11" si="0">C4/B4</f>
+        <v>0.68656716417910446</v>
+      </c>
+      <c r="E4" s="73">
+        <f>F4+G4</f>
+        <v>727450</v>
+      </c>
+      <c r="F4" s="74">
+        <f>459000-6000</f>
+        <v>453000</v>
+      </c>
+      <c r="G4" s="75">
+        <v>274450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="70">
+        <v>74</v>
+      </c>
+      <c r="C5" s="71">
+        <v>40</v>
+      </c>
+      <c r="D5" s="72">
+        <f t="shared" si="0"/>
+        <v>0.54054054054054057</v>
+      </c>
+      <c r="E5" s="73">
+        <v>771916</v>
+      </c>
+      <c r="F5" s="74">
+        <v>498000</v>
+      </c>
+      <c r="G5" s="75">
+        <v>273916</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="70">
+        <v>61</v>
+      </c>
+      <c r="C6" s="71">
+        <v>21</v>
+      </c>
+      <c r="D6" s="72">
+        <f t="shared" si="0"/>
+        <v>0.34426229508196721</v>
+      </c>
+      <c r="E6" s="73">
+        <v>473280</v>
+      </c>
+      <c r="F6" s="74">
+        <v>210000</v>
+      </c>
+      <c r="G6" s="75">
+        <v>263280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="70">
+        <v>103</v>
+      </c>
+      <c r="C7" s="71">
+        <v>31</v>
+      </c>
+      <c r="D7" s="72">
+        <f t="shared" si="0"/>
+        <v>0.30097087378640774</v>
+      </c>
+      <c r="E7" s="73">
+        <v>625003</v>
+      </c>
+      <c r="F7" s="74">
+        <v>285000</v>
+      </c>
+      <c r="G7" s="75">
+        <v>340003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="70">
+        <v>28</v>
+      </c>
+      <c r="C8" s="71">
+        <v>3</v>
+      </c>
+      <c r="D8" s="72">
+        <f t="shared" si="0"/>
+        <v>0.10714285714285714</v>
+      </c>
+      <c r="E8" s="73">
+        <v>35000</v>
+      </c>
+      <c r="F8" s="74">
+        <v>30000</v>
+      </c>
+      <c r="G8" s="75">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="70">
+        <v>15</v>
+      </c>
+      <c r="C9" s="71">
+        <v>4</v>
+      </c>
+      <c r="D9" s="72">
+        <f t="shared" si="0"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="E9" s="73">
+        <v>55000</v>
+      </c>
+      <c r="F9" s="74">
+        <v>40000</v>
+      </c>
+      <c r="G9" s="75">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="70">
+        <v>15</v>
+      </c>
+      <c r="C10" s="71">
+        <v>3</v>
+      </c>
+      <c r="D10" s="72">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="73">
+        <v>79307</v>
+      </c>
+      <c r="F10" s="74">
+        <v>30000</v>
+      </c>
+      <c r="G10" s="75">
+        <v>49307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="70">
+        <v>10</v>
+      </c>
+      <c r="C11" s="71">
+        <v>2</v>
+      </c>
+      <c r="D11" s="72">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="E11" s="73">
+        <v>20000</v>
+      </c>
+      <c r="F11" s="74">
+        <v>20000</v>
+      </c>
+      <c r="G11" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="77"/>
+      <c r="C12" s="78">
+        <v>1</v>
+      </c>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79">
+        <v>10000</v>
+      </c>
+      <c r="F12" s="80">
+        <v>10000</v>
+      </c>
+      <c r="G12" s="81"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="77"/>
+      <c r="C13" s="78">
+        <v>2</v>
+      </c>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79">
+        <v>15000</v>
+      </c>
+      <c r="F13" s="80">
+        <v>15000</v>
+      </c>
+      <c r="G13" s="81"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="77"/>
+      <c r="C14" s="78">
+        <v>3</v>
+      </c>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79">
+        <f>62875+6000</f>
+        <v>68875</v>
+      </c>
+      <c r="F14" s="80"/>
+      <c r="G14" s="81">
+        <f>62875+6000</f>
+        <v>68875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="84">
+        <f>SUM(B3:B11)</f>
+        <v>390</v>
+      </c>
+      <c r="C15" s="85">
+        <f>SUM(C3:C14)</f>
+        <v>162</v>
+      </c>
+      <c r="D15" s="86">
+        <f>C15/B15</f>
+        <v>0.41538461538461541</v>
+      </c>
+      <c r="E15" s="87">
+        <f>SUM(E3:E14)</f>
+        <v>2940831</v>
+      </c>
+      <c r="F15" s="88">
+        <f>SUM(F3:F14)</f>
+        <v>1651000</v>
+      </c>
+      <c r="G15" s="89">
+        <f>SUM(G3:G14)</f>
+        <v>1289831</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="90"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="130" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="92">
+        <v>66894</v>
+      </c>
+      <c r="F17" s="92">
+        <f>E17</f>
+        <v>66894</v>
+      </c>
+      <c r="G17" s="93"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="90"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="95" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="96">
+        <f>E15+E17</f>
+        <v>3007725</v>
+      </c>
+      <c r="F18" s="97">
+        <f>SUM(F15+F17)</f>
+        <v>1717894</v>
+      </c>
+      <c r="G18" s="98">
+        <f>SUM(G15:G17)</f>
+        <v>1289831</v>
+      </c>
+      <c r="Q18" s="94" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="90"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="130" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="130"/>
+      <c r="F19" s="130"/>
+      <c r="G19" s="92">
+        <f>G20+G21</f>
+        <v>717572</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="90"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="132"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="73">
+        <f>315524</f>
+        <v>315524</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="90"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="134" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="135"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="73">
+        <v>402048</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="90"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="129" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="129"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="99">
+        <f>F15+F17</f>
+        <v>1717894</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="90"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="129" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="129"/>
+      <c r="F23" s="129"/>
+      <c r="G23" s="99">
+        <f>G15-G19</f>
+        <v>572259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="90"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="100" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="101">
+        <f>SUM(G22:G23)</f>
+        <v>2290153</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D3:D11">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9706060-1731-41CB-8B93-05063862E976}">
+  <dimension ref="A1:T42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AH6" sqref="AH6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.77734375" style="103" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.5546875" customWidth="1"/>
+    <col min="13" max="13" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="1.21875" customWidth="1"/>
+    <col min="17" max="17" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="60"/>
+    </row>
+    <row r="2" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="70">
+        <v>17</v>
+      </c>
+      <c r="C3" s="71">
+        <v>6</v>
+      </c>
+      <c r="D3" s="72">
+        <f>C3/B3</f>
+        <v>0.35294117647058826</v>
+      </c>
+      <c r="E3" s="73">
+        <v>60000</v>
+      </c>
+      <c r="F3" s="74">
+        <v>60000</v>
+      </c>
+      <c r="G3" s="75">
+        <v>0</v>
+      </c>
+      <c r="I3" s="104" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="123">
+        <v>60000</v>
+      </c>
+      <c r="K3" s="138">
+        <f>$J3/$J$15</f>
+        <v>2.0402396465488835E-2</v>
+      </c>
+      <c r="L3" s="103"/>
+      <c r="M3" s="104" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="112">
+        <v>60000</v>
+      </c>
+      <c r="O3" s="105">
+        <f>$N3/$N$15</f>
+        <v>3.6341611144760748E-2</v>
+      </c>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="104" t="s">
+        <v>47</v>
+      </c>
+      <c r="R3" s="115">
+        <v>0</v>
+      </c>
+      <c r="S3" s="105">
+        <f>$R3/$R$15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="70">
+        <v>67</v>
+      </c>
+      <c r="C4" s="71">
+        <v>46</v>
+      </c>
+      <c r="D4" s="72">
+        <f t="shared" ref="D4:D11" si="0">C4/B4</f>
+        <v>0.68656716417910446</v>
+      </c>
+      <c r="E4" s="73">
+        <f>F4+G4</f>
+        <v>727450</v>
+      </c>
+      <c r="F4" s="74">
+        <f>459000-6000</f>
+        <v>453000</v>
+      </c>
+      <c r="G4" s="75">
+        <v>274450</v>
+      </c>
+      <c r="I4" s="106" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="123">
+        <f>N4+R4</f>
+        <v>727450</v>
+      </c>
+      <c r="K4" s="138">
+        <f t="shared" ref="K4:K14" si="1">$J4/$J$15</f>
+        <v>0.24736205514699758</v>
+      </c>
+      <c r="L4" s="103"/>
+      <c r="M4" s="106" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="111">
+        <f>459000-6000</f>
+        <v>453000</v>
+      </c>
+      <c r="O4" s="107">
+        <f t="shared" ref="O4:O14" si="2">$N4/$N$15</f>
+        <v>0.27437916414294367</v>
+      </c>
+      <c r="P4" s="103"/>
+      <c r="Q4" s="106" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="114">
+        <v>274450</v>
+      </c>
+      <c r="S4" s="107">
+        <f t="shared" ref="S4:S14" si="3">$R4/$R$15</f>
+        <v>0.21277981378955849</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="70">
+        <v>74</v>
+      </c>
+      <c r="C5" s="71">
+        <v>40</v>
+      </c>
+      <c r="D5" s="72">
+        <f t="shared" si="0"/>
+        <v>0.54054054054054057</v>
+      </c>
+      <c r="E5" s="73">
+        <v>771916</v>
+      </c>
+      <c r="F5" s="74">
+        <v>498000</v>
+      </c>
+      <c r="G5" s="75">
+        <v>273916</v>
+      </c>
+      <c r="I5" s="106" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="123">
+        <v>771916</v>
+      </c>
+      <c r="K5" s="138">
+        <f t="shared" si="1"/>
+        <v>0.26248227116757133</v>
+      </c>
+      <c r="L5" s="103"/>
+      <c r="M5" s="106" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="111">
+        <v>498000</v>
+      </c>
+      <c r="O5" s="107">
+        <f t="shared" si="2"/>
+        <v>0.30163537250151423</v>
+      </c>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="106" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" s="114">
+        <v>273916</v>
+      </c>
+      <c r="S5" s="107">
+        <f t="shared" si="3"/>
+        <v>0.21236580606296485</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="70">
+        <v>61</v>
+      </c>
+      <c r="C6" s="71">
+        <v>21</v>
+      </c>
+      <c r="D6" s="72">
+        <f t="shared" si="0"/>
+        <v>0.34426229508196721</v>
+      </c>
+      <c r="E6" s="73">
+        <v>473280</v>
+      </c>
+      <c r="F6" s="74">
+        <v>210000</v>
+      </c>
+      <c r="G6" s="75">
+        <v>263280</v>
+      </c>
+      <c r="I6" s="106" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="123">
+        <v>473280</v>
+      </c>
+      <c r="K6" s="138">
+        <f t="shared" si="1"/>
+        <v>0.16093410331977595</v>
+      </c>
+      <c r="L6" s="103"/>
+      <c r="M6" s="106" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" s="111">
+        <v>210000</v>
+      </c>
+      <c r="O6" s="107">
+        <f t="shared" si="2"/>
+        <v>0.12719563900666264</v>
+      </c>
+      <c r="P6" s="103"/>
+      <c r="Q6" s="106" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" s="114">
+        <v>263280</v>
+      </c>
+      <c r="S6" s="107">
+        <f t="shared" si="3"/>
+        <v>0.20411976452729078</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="70">
+        <v>103</v>
+      </c>
+      <c r="C7" s="71">
+        <v>31</v>
+      </c>
+      <c r="D7" s="72">
+        <f t="shared" si="0"/>
+        <v>0.30097087378640774</v>
+      </c>
+      <c r="E7" s="73">
+        <v>625003</v>
+      </c>
+      <c r="F7" s="74">
+        <v>285000</v>
+      </c>
+      <c r="G7" s="75">
+        <v>340003</v>
+      </c>
+      <c r="I7" s="106" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="123">
+        <v>625003</v>
+      </c>
+      <c r="K7" s="138">
+        <f t="shared" si="1"/>
+        <v>0.21252598330199865</v>
+      </c>
+      <c r="L7" s="103"/>
+      <c r="M7" s="106" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="111">
+        <v>285000</v>
+      </c>
+      <c r="O7" s="107">
+        <f t="shared" si="2"/>
+        <v>0.17262265293761356</v>
+      </c>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="106" t="s">
+        <v>41</v>
+      </c>
+      <c r="R7" s="114">
+        <v>340003</v>
+      </c>
+      <c r="S7" s="107">
+        <f t="shared" si="3"/>
+        <v>0.26360275105808434</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="70">
+        <v>28</v>
+      </c>
+      <c r="C8" s="71">
+        <v>3</v>
+      </c>
+      <c r="D8" s="72">
+        <f t="shared" si="0"/>
+        <v>0.10714285714285714</v>
+      </c>
+      <c r="E8" s="73">
+        <v>35000</v>
+      </c>
+      <c r="F8" s="74">
+        <v>30000</v>
+      </c>
+      <c r="G8" s="75">
+        <v>5000</v>
+      </c>
+      <c r="I8" s="106" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="123">
+        <v>35000</v>
+      </c>
+      <c r="K8" s="138">
+        <f t="shared" si="1"/>
+        <v>1.1901397938201821E-2</v>
+      </c>
+      <c r="L8" s="103"/>
+      <c r="M8" s="106" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="111">
+        <v>30000</v>
+      </c>
+      <c r="O8" s="107">
+        <f t="shared" si="2"/>
+        <v>1.8170805572380374E-2</v>
+      </c>
+      <c r="P8" s="103"/>
+      <c r="Q8" s="106" t="s">
+        <v>44</v>
+      </c>
+      <c r="R8" s="114">
+        <v>5000</v>
+      </c>
+      <c r="S8" s="107">
+        <f t="shared" si="3"/>
+        <v>3.8764768407644101E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="70">
+        <v>15</v>
+      </c>
+      <c r="C9" s="71">
+        <v>4</v>
+      </c>
+      <c r="D9" s="72">
+        <f t="shared" si="0"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="E9" s="73">
+        <v>55000</v>
+      </c>
+      <c r="F9" s="74">
+        <v>40000</v>
+      </c>
+      <c r="G9" s="75">
+        <v>15000</v>
+      </c>
+      <c r="I9" s="106" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="123">
+        <v>55000</v>
+      </c>
+      <c r="K9" s="138">
+        <f t="shared" si="1"/>
+        <v>1.8702196760031434E-2</v>
+      </c>
+      <c r="L9" s="103"/>
+      <c r="M9" s="106" t="s">
+        <v>59</v>
+      </c>
+      <c r="N9" s="111">
+        <v>40000</v>
+      </c>
+      <c r="O9" s="107">
+        <f t="shared" si="2"/>
+        <v>2.4227740763173834E-2</v>
+      </c>
+      <c r="P9" s="103"/>
+      <c r="Q9" s="106" t="s">
+        <v>59</v>
+      </c>
+      <c r="R9" s="114">
+        <v>15000</v>
+      </c>
+      <c r="S9" s="107">
+        <f t="shared" si="3"/>
+        <v>1.1629430522293231E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="70">
+        <v>15</v>
+      </c>
+      <c r="C10" s="71">
+        <v>3</v>
+      </c>
+      <c r="D10" s="72">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="E10" s="73">
+        <v>79307</v>
+      </c>
+      <c r="F10" s="74">
+        <v>30000</v>
+      </c>
+      <c r="G10" s="75">
+        <v>49307</v>
+      </c>
+      <c r="I10" s="106" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" s="123">
+        <v>79307</v>
+      </c>
+      <c r="K10" s="138">
+        <f t="shared" si="1"/>
+        <v>2.6967547608142052E-2</v>
+      </c>
+      <c r="L10" s="103"/>
+      <c r="M10" s="106" t="s">
+        <v>60</v>
+      </c>
+      <c r="N10" s="111">
+        <v>30000</v>
+      </c>
+      <c r="O10" s="107">
+        <f t="shared" si="2"/>
+        <v>1.8170805572380374E-2</v>
+      </c>
+      <c r="P10" s="103"/>
+      <c r="Q10" s="106" t="s">
+        <v>60</v>
+      </c>
+      <c r="R10" s="114">
+        <v>49307</v>
+      </c>
+      <c r="S10" s="107">
+        <f t="shared" si="3"/>
+        <v>3.8227488717514156E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="70">
+        <v>10</v>
+      </c>
+      <c r="C11" s="71">
+        <v>2</v>
+      </c>
+      <c r="D11" s="72">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="E11" s="73">
+        <v>20000</v>
+      </c>
+      <c r="F11" s="74">
+        <v>20000</v>
+      </c>
+      <c r="G11" s="75">
+        <v>0</v>
+      </c>
+      <c r="I11" s="106" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="123">
+        <v>20000</v>
+      </c>
+      <c r="K11" s="138">
+        <f t="shared" si="1"/>
+        <v>6.8007988218296124E-3</v>
+      </c>
+      <c r="L11" s="103"/>
+      <c r="M11" s="106" t="s">
+        <v>61</v>
+      </c>
+      <c r="N11" s="111">
+        <v>20000</v>
+      </c>
+      <c r="O11" s="107">
+        <f t="shared" si="2"/>
+        <v>1.2113870381586917E-2</v>
+      </c>
+      <c r="P11" s="103"/>
+      <c r="Q11" s="106" t="s">
+        <v>61</v>
+      </c>
+      <c r="R11" s="114">
+        <v>0</v>
+      </c>
+      <c r="S11" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="77"/>
+      <c r="C12" s="78">
+        <v>1</v>
+      </c>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79">
+        <v>10000</v>
+      </c>
+      <c r="F12" s="80">
+        <v>10000</v>
+      </c>
+      <c r="G12" s="81"/>
+      <c r="I12" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="124">
+        <v>10000</v>
+      </c>
+      <c r="K12" s="138">
+        <f>$J12/$J$15</f>
+        <v>3.4003994109148062E-3</v>
+      </c>
+      <c r="L12" s="103"/>
+      <c r="M12" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="N12" s="111">
+        <v>10000</v>
+      </c>
+      <c r="O12" s="107">
+        <f t="shared" si="2"/>
+        <v>6.0569351907934586E-3</v>
+      </c>
+      <c r="P12" s="103"/>
+      <c r="Q12" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="R12" s="114"/>
+      <c r="S12" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="77"/>
+      <c r="C13" s="78">
+        <v>2</v>
+      </c>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79">
+        <v>15000</v>
+      </c>
+      <c r="F13" s="80">
+        <v>15000</v>
+      </c>
+      <c r="G13" s="81"/>
+      <c r="I13" s="108" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="124">
+        <v>15000</v>
+      </c>
+      <c r="K13" s="138">
+        <f t="shared" si="1"/>
+        <v>5.1005991163722087E-3</v>
+      </c>
+      <c r="L13" s="103"/>
+      <c r="M13" s="108" t="s">
+        <v>74</v>
+      </c>
+      <c r="N13" s="111">
+        <v>15000</v>
+      </c>
+      <c r="O13" s="107">
+        <f t="shared" si="2"/>
+        <v>9.085402786190187E-3</v>
+      </c>
+      <c r="P13" s="103"/>
+      <c r="Q13" s="108" t="s">
+        <v>74</v>
+      </c>
+      <c r="R13" s="114"/>
+      <c r="S13" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="77"/>
+      <c r="C14" s="78">
+        <v>3</v>
+      </c>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79">
+        <f>62875+6000</f>
+        <v>68875</v>
+      </c>
+      <c r="F14" s="80"/>
+      <c r="G14" s="81">
+        <f>62875+6000</f>
+        <v>68875</v>
+      </c>
+      <c r="I14" s="108" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="124">
+        <f>62875+6000</f>
+        <v>68875</v>
+      </c>
+      <c r="K14" s="138">
+        <f t="shared" si="1"/>
+        <v>2.3420250942675726E-2</v>
+      </c>
+      <c r="L14" s="103"/>
+      <c r="M14" s="108" t="s">
+        <v>64</v>
+      </c>
+      <c r="N14" s="111"/>
+      <c r="O14" s="107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="103"/>
+      <c r="Q14" s="108" t="s">
+        <v>64</v>
+      </c>
+      <c r="R14" s="114">
+        <f>62875+6000</f>
+        <v>68875</v>
+      </c>
+      <c r="S14" s="107">
+        <f t="shared" si="3"/>
+        <v>5.3398468481529751E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="84">
+        <f>SUM(B3:B11)</f>
+        <v>390</v>
+      </c>
+      <c r="C15" s="85">
+        <f>SUM(C3:C14)</f>
+        <v>162</v>
+      </c>
+      <c r="D15" s="86">
+        <f>C15/B15</f>
+        <v>0.41538461538461541</v>
+      </c>
+      <c r="E15" s="87">
+        <f>SUM(E3:E14)</f>
+        <v>2940831</v>
+      </c>
+      <c r="F15" s="88">
+        <f>SUM(F3:F14)</f>
+        <v>1651000</v>
+      </c>
+      <c r="G15" s="89">
+        <f>SUM(G3:G14)</f>
+        <v>1289831</v>
+      </c>
+      <c r="I15" s="109"/>
+      <c r="J15" s="125">
+        <f>SUM(J3:J14)</f>
+        <v>2940831</v>
+      </c>
+      <c r="K15" s="139">
+        <f>SUM(K3:K14)</f>
+        <v>1</v>
+      </c>
+      <c r="L15" s="103"/>
+      <c r="M15" s="109"/>
+      <c r="N15" s="113">
+        <f>SUM(N3:N14)</f>
+        <v>1651000</v>
+      </c>
+      <c r="O15" s="110">
+        <f>SUM(O3:O14)</f>
+        <v>1</v>
+      </c>
+      <c r="P15" s="103"/>
+      <c r="Q15" s="109"/>
+      <c r="R15" s="116">
+        <f>SUM(R3:R14)</f>
+        <v>1289831</v>
+      </c>
+      <c r="S15" s="110">
+        <f>SUM(S3:S14)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="90"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="T16" s="103"/>
+    </row>
+    <row r="17" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="130" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="92">
+        <v>66894</v>
+      </c>
+      <c r="F17" s="92">
+        <f>E17</f>
+        <v>66894</v>
+      </c>
+      <c r="G17" s="93"/>
+      <c r="T17" s="103"/>
+    </row>
+    <row r="18" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="90"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="95" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="96">
+        <f>E15+E17</f>
+        <v>3007725</v>
+      </c>
+      <c r="F18" s="97">
+        <f>SUM(F15+F17)</f>
+        <v>1717894</v>
+      </c>
+      <c r="G18" s="98">
+        <f>SUM(G15:G17)</f>
+        <v>1289831</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="90"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="130" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="130"/>
+      <c r="F19" s="130"/>
+      <c r="G19" s="92">
+        <f>G20+G21</f>
+        <v>717572</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="90"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="132"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="73">
+        <f>315524</f>
+        <v>315524</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="90"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="134" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="135"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="73">
+        <v>402048</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>86</v>
+      </c>
+      <c r="R21" s="145">
+        <f>E15</f>
+        <v>2940831</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="90"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="129" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="129"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="99">
+        <f>F15+F17</f>
+        <v>1717894</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>90</v>
+      </c>
+      <c r="R22" s="145">
+        <f>G19</f>
+        <v>717572</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="90"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="129" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="129"/>
+      <c r="F23" s="129"/>
+      <c r="G23" s="99">
+        <f>G15-G19</f>
+        <v>572259</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>88</v>
+      </c>
+      <c r="R23" s="145">
+        <f>G22</f>
+        <v>1717894</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="90"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="100" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="101">
+        <f>SUM(G22:G23)</f>
+        <v>2290153</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>87</v>
+      </c>
+      <c r="R24" s="145">
+        <f>F17</f>
+        <v>66894</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q25" t="s">
+        <v>89</v>
+      </c>
+      <c r="R25" s="145">
+        <f>G23</f>
+        <v>572259</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D29" s="122" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="120">
+        <v>60000</v>
+      </c>
+      <c r="F29" s="121"/>
+      <c r="G29" s="117">
+        <f t="shared" ref="G29:G33" si="4">I29/1000</f>
+        <v>60</v>
+      </c>
+      <c r="I29" s="123">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D30" s="140" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="118">
+        <v>30000</v>
+      </c>
+      <c r="F30" s="119">
+        <v>5000</v>
+      </c>
+      <c r="G30" s="117">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="I30" s="123">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D31" s="140" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="118">
+        <v>40000</v>
+      </c>
+      <c r="F31" s="119">
+        <v>15000</v>
+      </c>
+      <c r="G31" s="117">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="I31" s="123">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D32" s="140" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="118">
+        <v>30000</v>
+      </c>
+      <c r="F32" s="119">
+        <v>49307</v>
+      </c>
+      <c r="G32" s="117">
+        <f t="shared" si="4"/>
+        <v>79.307000000000002</v>
+      </c>
+      <c r="I32" s="123">
+        <v>79307</v>
+      </c>
+    </row>
+    <row r="33" spans="4:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D33" s="140" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="118">
+        <v>20000</v>
+      </c>
+      <c r="F33" s="119"/>
+      <c r="G33" s="117">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="I33" s="123">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="D34" s="141" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="118">
+        <v>25000</v>
+      </c>
+      <c r="F34" s="119">
+        <f>62875+6000</f>
+        <v>68875</v>
+      </c>
+      <c r="G34" s="117">
+        <f>I35/1000</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="137">
+        <f>SUM(J34:J36)</f>
+        <v>93875</v>
+      </c>
+      <c r="J34" s="124">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="35" spans="4:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D35" s="108"/>
+      <c r="E35" s="118"/>
+      <c r="G35" s="117">
+        <f>I36/1000</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="137"/>
+      <c r="J35" s="124">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D36" s="108"/>
+      <c r="E36" s="118"/>
+      <c r="F36" s="119"/>
+      <c r="G36" s="117">
+        <f>I34/1000</f>
+        <v>93.875</v>
+      </c>
+      <c r="I36" s="137"/>
+      <c r="J36" s="124">
+        <f>62875+6000</f>
+        <v>68875</v>
+      </c>
+    </row>
+    <row r="37" spans="4:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="I37" s="93"/>
+    </row>
+    <row r="38" spans="4:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D38" s="140" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="142">
+        <f>459000-6000</f>
+        <v>453000</v>
+      </c>
+      <c r="F38" s="143">
+        <v>274450</v>
+      </c>
+      <c r="G38" s="137">
+        <f>N4+R4</f>
+        <v>727450</v>
+      </c>
+    </row>
+    <row r="39" spans="4:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D39" s="140" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="142">
+        <v>498000</v>
+      </c>
+      <c r="F39" s="143">
+        <v>273916</v>
+      </c>
+      <c r="G39" s="137">
+        <v>771916</v>
+      </c>
+    </row>
+    <row r="40" spans="4:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D40" s="140" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="142">
+        <v>210000</v>
+      </c>
+      <c r="F40" s="143">
+        <v>263280</v>
+      </c>
+      <c r="G40" s="137">
+        <v>473280</v>
+      </c>
+    </row>
+    <row r="41" spans="4:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D41" s="140" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="142">
+        <v>285000</v>
+      </c>
+      <c r="F41" s="143">
+        <v>340003</v>
+      </c>
+      <c r="G41" s="137">
+        <v>625003</v>
+      </c>
+    </row>
+    <row r="42" spans="4:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D42" s="144" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D3:D11">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/For-Portal-1Jan19.xlsx
+++ b/docs/For-Portal-1Jan19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trust-site\git\ceg94trust\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED550837-A161-4038-8916-C7CF2553A170}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B05D5A-C91E-4F42-B56E-E5A252042255}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="For Portal" sheetId="1" r:id="rId1"/>
@@ -1444,6 +1444,27 @@
     <xf numFmtId="168" fontId="7" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="17" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="18" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1477,27 +1498,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="17" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="18" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Currency" xfId="4" builtinId="4"/>
@@ -2444,7 +2444,7 @@
                   <c:v>315524</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>323275</c:v>
+                  <c:v>309110</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>92938</c:v>
@@ -2550,6 +2550,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -7890,14 +7891,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>622934</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>137159</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>108584</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>62865</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7975,6 +7976,136 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.66428</cdr:x>
+      <cdr:y>0.22614</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.46225</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C9402CF-5DE4-4978-897B-928A200C08B1}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8007797" y="1036485"/>
+          <a:ext cx="2508308" cy="1082212"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="38100">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="3200" b="1" dirty="0"/>
+            <a:t>22 Students</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="3200" b="1" dirty="0"/>
+            <a:t>₹7,17,572</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="3200" b="1" dirty="0">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-IN" sz="3200" b="1" dirty="0"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8087,7 +8218,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -8374,7 +8505,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -9266,8 +9397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:O40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -9278,7 +9409,7 @@
     <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="11.5546875"/>
     <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5546875" customWidth="1"/>
     <col min="12" max="12" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="23.33203125" bestFit="1" customWidth="1"/>
@@ -9295,14 +9426,14 @@
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126" t="s">
+      <c r="E3" s="135"/>
+      <c r="F3" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="126"/>
+      <c r="G3" s="135"/>
     </row>
     <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
@@ -9346,14 +9477,14 @@
         <v>24250</v>
       </c>
       <c r="J5" s="31"/>
-      <c r="K5" s="127">
+      <c r="K5" s="136">
         <v>43282</v>
       </c>
-      <c r="L5" s="128"/>
-      <c r="M5" s="127">
+      <c r="L5" s="137"/>
+      <c r="M5" s="136">
         <v>43446</v>
       </c>
-      <c r="N5" s="128"/>
+      <c r="N5" s="137"/>
       <c r="O5" s="31"/>
     </row>
     <row r="6" spans="1:15" ht="25.2" thickBot="1" x14ac:dyDescent="0.45">
@@ -9473,8 +9604,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="36">
-        <f t="shared" si="0"/>
-        <v>14165</v>
+        <v>0</v>
       </c>
       <c r="L8" s="36">
         <f t="shared" si="0"/>
@@ -9490,7 +9620,7 @@
       </c>
       <c r="O8" s="34">
         <f>SUM(K8:N8)</f>
-        <v>207195</v>
+        <v>193030</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
@@ -9618,7 +9748,7 @@
       </c>
       <c r="K11" s="40">
         <f>SUM(K7:K10)</f>
-        <v>14165</v>
+        <v>0</v>
       </c>
       <c r="L11" s="40">
         <f>SUM(L7:L10)</f>
@@ -9634,7 +9764,7 @@
       </c>
       <c r="O11" s="41">
         <f>SUM(K11:N11)</f>
-        <v>731737</v>
+        <v>717572</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="24.6" x14ac:dyDescent="0.4">
@@ -9666,7 +9796,7 @@
       <c r="L12" s="31"/>
       <c r="M12" s="55">
         <f>SUM(K11,M11)</f>
-        <v>160585</v>
+        <v>146420</v>
       </c>
       <c r="N12" s="31"/>
       <c r="O12" s="55">
@@ -9838,7 +9968,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="10">
-        <v>14165</v>
+        <v>0</v>
       </c>
       <c r="E18" s="10">
         <f>[1]Consolidated!G18</f>
@@ -10116,7 +10246,7 @@
       <c r="C27" s="13"/>
       <c r="D27" s="6">
         <f>SUM(D5:D26)</f>
-        <v>14165</v>
+        <v>0</v>
       </c>
       <c r="E27" s="6">
         <f>SUM(E5:E26)</f>
@@ -10145,7 +10275,7 @@
       </c>
       <c r="E28" s="15">
         <f>D27+E27</f>
-        <v>100826</v>
+        <v>86661</v>
       </c>
       <c r="F28" s="16" t="s">
         <v>29</v>
@@ -10172,7 +10302,10 @@
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="19">
-        <f>[1]Consolidated!K35</f>
+        <f>E30-14165</f>
+        <v>309110</v>
+      </c>
+      <c r="E30" s="19">
         <v>323275</v>
       </c>
     </row>
@@ -10193,7 +10326,7 @@
       <c r="C32" s="20"/>
       <c r="D32" s="21">
         <f>SUM(D27:G27)</f>
-        <v>731737</v>
+        <v>717572</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="16"/>
@@ -10220,7 +10353,7 @@
       </c>
       <c r="D38" s="52">
         <f>D30</f>
-        <v>323275</v>
+        <v>309110</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -10243,7 +10376,7 @@
       </c>
       <c r="D40" s="30">
         <f>SUM(D37:D39)</f>
-        <v>731737</v>
+        <v>717572</v>
       </c>
     </row>
   </sheetData>
@@ -10290,14 +10423,14 @@
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126" t="s">
+      <c r="E3" s="135"/>
+      <c r="F3" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="126"/>
+      <c r="G3" s="135"/>
     </row>
     <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -10991,7 +11124,7 @@
   <dimension ref="A1:AMK24"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="G20" sqref="G20:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11352,12 +11485,12 @@
       <c r="G16" s="90"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="130" t="s">
+      <c r="A17" s="139" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="130"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
       <c r="E17" s="92">
         <v>66894</v>
       </c>
@@ -11394,11 +11527,11 @@
       <c r="A19" s="90"/>
       <c r="B19" s="90"/>
       <c r="C19" s="91"/>
-      <c r="D19" s="130" t="s">
+      <c r="D19" s="139" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="130"/>
-      <c r="F19" s="130"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="139"/>
       <c r="G19" s="92">
         <f>G20+G21</f>
         <v>717572</v>
@@ -11408,11 +11541,11 @@
       <c r="A20" s="90"/>
       <c r="B20" s="90"/>
       <c r="C20" s="91"/>
-      <c r="D20" s="131" t="s">
+      <c r="D20" s="140" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="132"/>
-      <c r="F20" s="133"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="142"/>
       <c r="G20" s="73">
         <f>315524</f>
         <v>315524</v>
@@ -11422,11 +11555,11 @@
       <c r="A21" s="90"/>
       <c r="B21" s="90"/>
       <c r="C21" s="91"/>
-      <c r="D21" s="134" t="s">
+      <c r="D21" s="143" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="135"/>
-      <c r="F21" s="136"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="145"/>
       <c r="G21" s="73">
         <v>402048</v>
       </c>
@@ -11435,11 +11568,11 @@
       <c r="A22" s="90"/>
       <c r="B22" s="90"/>
       <c r="C22" s="91"/>
-      <c r="D22" s="129" t="s">
+      <c r="D22" s="138" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="138"/>
       <c r="G22" s="99">
         <f>F15+F17</f>
         <v>1717894</v>
@@ -11449,11 +11582,11 @@
       <c r="A23" s="90"/>
       <c r="B23" s="90"/>
       <c r="C23" s="91"/>
-      <c r="D23" s="129" t="s">
+      <c r="D23" s="138" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="129"/>
-      <c r="F23" s="129"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
       <c r="G23" s="99">
         <f>G15-G19</f>
         <v>572259</v>
@@ -11502,8 +11635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9706060-1731-41CB-8B93-05063862E976}">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AH6" sqref="AH6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11533,7 +11666,7 @@
       <c r="F1" s="59"/>
       <c r="G1" s="60"/>
     </row>
-    <row r="2" spans="1:20" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="62" t="s">
         <v>52</v>
       </c>
@@ -11585,7 +11718,7 @@
       <c r="J3" s="123">
         <v>60000</v>
       </c>
-      <c r="K3" s="138">
+      <c r="K3" s="127">
         <f>$J3/$J$15</f>
         <v>2.0402396465488835E-2</v>
       </c>
@@ -11644,7 +11777,7 @@
         <f>N4+R4</f>
         <v>727450</v>
       </c>
-      <c r="K4" s="138">
+      <c r="K4" s="127">
         <f t="shared" ref="K4:K14" si="1">$J4/$J$15</f>
         <v>0.24736205514699758</v>
       </c>
@@ -11701,7 +11834,7 @@
       <c r="J5" s="123">
         <v>771916</v>
       </c>
-      <c r="K5" s="138">
+      <c r="K5" s="127">
         <f t="shared" si="1"/>
         <v>0.26248227116757133</v>
       </c>
@@ -11757,7 +11890,7 @@
       <c r="J6" s="123">
         <v>473280</v>
       </c>
-      <c r="K6" s="138">
+      <c r="K6" s="127">
         <f t="shared" si="1"/>
         <v>0.16093410331977595</v>
       </c>
@@ -11813,7 +11946,7 @@
       <c r="J7" s="123">
         <v>625003</v>
       </c>
-      <c r="K7" s="138">
+      <c r="K7" s="127">
         <f t="shared" si="1"/>
         <v>0.21252598330199865</v>
       </c>
@@ -11869,7 +12002,7 @@
       <c r="J8" s="123">
         <v>35000</v>
       </c>
-      <c r="K8" s="138">
+      <c r="K8" s="127">
         <f t="shared" si="1"/>
         <v>1.1901397938201821E-2</v>
       </c>
@@ -11925,7 +12058,7 @@
       <c r="J9" s="123">
         <v>55000</v>
       </c>
-      <c r="K9" s="138">
+      <c r="K9" s="127">
         <f t="shared" si="1"/>
         <v>1.8702196760031434E-2</v>
       </c>
@@ -11981,7 +12114,7 @@
       <c r="J10" s="123">
         <v>79307</v>
       </c>
-      <c r="K10" s="138">
+      <c r="K10" s="127">
         <f t="shared" si="1"/>
         <v>2.6967547608142052E-2</v>
       </c>
@@ -12037,7 +12170,7 @@
       <c r="J11" s="123">
         <v>20000</v>
       </c>
-      <c r="K11" s="138">
+      <c r="K11" s="127">
         <f t="shared" si="1"/>
         <v>6.8007988218296124E-3</v>
       </c>
@@ -12086,7 +12219,7 @@
       <c r="J12" s="124">
         <v>10000</v>
       </c>
-      <c r="K12" s="138">
+      <c r="K12" s="127">
         <f>$J12/$J$15</f>
         <v>3.4003994109148062E-3</v>
       </c>
@@ -12133,7 +12266,7 @@
       <c r="J13" s="124">
         <v>15000</v>
       </c>
-      <c r="K13" s="138">
+      <c r="K13" s="127">
         <f t="shared" si="1"/>
         <v>5.1005991163722087E-3</v>
       </c>
@@ -12183,7 +12316,7 @@
         <f>62875+6000</f>
         <v>68875</v>
       </c>
-      <c r="K14" s="138">
+      <c r="K14" s="127">
         <f t="shared" si="1"/>
         <v>2.3420250942675726E-2</v>
       </c>
@@ -12242,7 +12375,7 @@
         <f>SUM(J3:J14)</f>
         <v>2940831</v>
       </c>
-      <c r="K15" s="139">
+      <c r="K15" s="128">
         <f>SUM(K3:K14)</f>
         <v>1</v>
       </c>
@@ -12278,12 +12411,12 @@
       <c r="T16" s="103"/>
     </row>
     <row r="17" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="130" t="s">
+      <c r="A17" s="139" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="130"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
       <c r="E17" s="92">
         <v>66894</v>
       </c>
@@ -12318,11 +12451,11 @@
       <c r="A19" s="90"/>
       <c r="B19" s="90"/>
       <c r="C19" s="91"/>
-      <c r="D19" s="130" t="s">
+      <c r="D19" s="139" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="130"/>
-      <c r="F19" s="130"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="139"/>
       <c r="G19" s="92">
         <f>G20+G21</f>
         <v>717572</v>
@@ -12332,11 +12465,11 @@
       <c r="A20" s="90"/>
       <c r="B20" s="90"/>
       <c r="C20" s="91"/>
-      <c r="D20" s="131" t="s">
+      <c r="D20" s="140" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="132"/>
-      <c r="F20" s="133"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="142"/>
       <c r="G20" s="73">
         <f>315524</f>
         <v>315524</v>
@@ -12346,18 +12479,18 @@
       <c r="A21" s="90"/>
       <c r="B21" s="90"/>
       <c r="C21" s="91"/>
-      <c r="D21" s="134" t="s">
+      <c r="D21" s="143" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="135"/>
-      <c r="F21" s="136"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="145"/>
       <c r="G21" s="73">
         <v>402048</v>
       </c>
       <c r="Q21" t="s">
         <v>86</v>
       </c>
-      <c r="R21" s="145">
+      <c r="R21" s="134">
         <f>E15</f>
         <v>2940831</v>
       </c>
@@ -12366,11 +12499,11 @@
       <c r="A22" s="90"/>
       <c r="B22" s="90"/>
       <c r="C22" s="91"/>
-      <c r="D22" s="129" t="s">
+      <c r="D22" s="138" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="138"/>
       <c r="G22" s="99">
         <f>F15+F17</f>
         <v>1717894</v>
@@ -12378,7 +12511,7 @@
       <c r="Q22" t="s">
         <v>90</v>
       </c>
-      <c r="R22" s="145">
+      <c r="R22" s="134">
         <f>G19</f>
         <v>717572</v>
       </c>
@@ -12387,11 +12520,11 @@
       <c r="A23" s="90"/>
       <c r="B23" s="90"/>
       <c r="C23" s="91"/>
-      <c r="D23" s="129" t="s">
+      <c r="D23" s="138" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="129"/>
-      <c r="F23" s="129"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
       <c r="G23" s="99">
         <f>G15-G19</f>
         <v>572259</v>
@@ -12399,7 +12532,7 @@
       <c r="Q23" t="s">
         <v>88</v>
       </c>
-      <c r="R23" s="145">
+      <c r="R23" s="134">
         <f>G22</f>
         <v>1717894</v>
       </c>
@@ -12420,7 +12553,7 @@
       <c r="Q24" t="s">
         <v>87</v>
       </c>
-      <c r="R24" s="145">
+      <c r="R24" s="134">
         <f>F17</f>
         <v>66894</v>
       </c>
@@ -12429,7 +12562,7 @@
       <c r="Q25" t="s">
         <v>89</v>
       </c>
-      <c r="R25" s="145">
+      <c r="R25" s="134">
         <f>G23</f>
         <v>572259</v>
       </c>
@@ -12452,7 +12585,7 @@
       </c>
     </row>
     <row r="30" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="D30" s="140" t="s">
+      <c r="D30" s="129" t="s">
         <v>76</v>
       </c>
       <c r="E30" s="118">
@@ -12470,7 +12603,7 @@
       </c>
     </row>
     <row r="31" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="D31" s="140" t="s">
+      <c r="D31" s="129" t="s">
         <v>77</v>
       </c>
       <c r="E31" s="118">
@@ -12488,7 +12621,7 @@
       </c>
     </row>
     <row r="32" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="D32" s="140" t="s">
+      <c r="D32" s="129" t="s">
         <v>78</v>
       </c>
       <c r="E32" s="118">
@@ -12506,7 +12639,7 @@
       </c>
     </row>
     <row r="33" spans="4:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="D33" s="140" t="s">
+      <c r="D33" s="129" t="s">
         <v>79</v>
       </c>
       <c r="E33" s="118">
@@ -12522,7 +12655,7 @@
       </c>
     </row>
     <row r="34" spans="4:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="D34" s="141" t="s">
+      <c r="D34" s="130" t="s">
         <v>80</v>
       </c>
       <c r="E34" s="118">
@@ -12536,7 +12669,7 @@
         <f>I35/1000</f>
         <v>0</v>
       </c>
-      <c r="I34" s="137">
+      <c r="I34" s="126">
         <f>SUM(J34:J36)</f>
         <v>93875</v>
       </c>
@@ -12551,7 +12684,7 @@
         <f>I36/1000</f>
         <v>0</v>
       </c>
-      <c r="I35" s="137"/>
+      <c r="I35" s="126"/>
       <c r="J35" s="124">
         <v>15000</v>
       </c>
@@ -12564,7 +12697,7 @@
         <f>I34/1000</f>
         <v>93.875</v>
       </c>
-      <c r="I36" s="137"/>
+      <c r="I36" s="126"/>
       <c r="J36" s="124">
         <f>62875+6000</f>
         <v>68875</v>
@@ -12574,65 +12707,65 @@
       <c r="I37" s="93"/>
     </row>
     <row r="38" spans="4:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="D38" s="140" t="s">
+      <c r="D38" s="129" t="s">
         <v>81</v>
       </c>
-      <c r="E38" s="142">
+      <c r="E38" s="131">
         <f>459000-6000</f>
         <v>453000</v>
       </c>
-      <c r="F38" s="143">
+      <c r="F38" s="132">
         <v>274450</v>
       </c>
-      <c r="G38" s="137">
+      <c r="G38" s="126">
         <f>N4+R4</f>
         <v>727450</v>
       </c>
     </row>
     <row r="39" spans="4:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="D39" s="140" t="s">
+      <c r="D39" s="129" t="s">
         <v>82</v>
       </c>
-      <c r="E39" s="142">
+      <c r="E39" s="131">
         <v>498000</v>
       </c>
-      <c r="F39" s="143">
+      <c r="F39" s="132">
         <v>273916</v>
       </c>
-      <c r="G39" s="137">
+      <c r="G39" s="126">
         <v>771916</v>
       </c>
     </row>
     <row r="40" spans="4:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="D40" s="140" t="s">
+      <c r="D40" s="129" t="s">
         <v>83</v>
       </c>
-      <c r="E40" s="142">
+      <c r="E40" s="131">
         <v>210000</v>
       </c>
-      <c r="F40" s="143">
+      <c r="F40" s="132">
         <v>263280</v>
       </c>
-      <c r="G40" s="137">
+      <c r="G40" s="126">
         <v>473280</v>
       </c>
     </row>
     <row r="41" spans="4:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="D41" s="140" t="s">
+      <c r="D41" s="129" t="s">
         <v>84</v>
       </c>
-      <c r="E41" s="142">
+      <c r="E41" s="131">
         <v>285000</v>
       </c>
-      <c r="F41" s="143">
+      <c r="F41" s="132">
         <v>340003</v>
       </c>
-      <c r="G41" s="137">
+      <c r="G41" s="126">
         <v>625003</v>
       </c>
     </row>
     <row r="42" spans="4:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D42" s="144" t="s">
+      <c r="D42" s="133" t="s">
         <v>85</v>
       </c>
     </row>
